--- a/old_database/crypto/rnaSample/rnaSample_3016.xlsx
+++ b/old_database/crypto/rnaSample/rnaSample_3016.xlsx
@@ -43,7 +43,7 @@
     <t>06.29.18</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_3016</t>
   </si>
 </sst>
 </file>
